--- a/dup/dup_Toko_Oleh_Oleh.xlsx
+++ b/dup/dup_Toko_Oleh_Oleh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -500,22 +495,21 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>-7.897066</v>
+      </c>
       <c r="G2" t="n">
-        <v>-7.897066</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.323286</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Geplak+Mbok+Tumpuk/@-7.8970663,110.251188,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7aff6500000001:0xf1057df9d7154d21!8m2!3d-7.8970663!4d110.3232858!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEEZGVsaeABAA!16s%2Fg%2F1pzs0p3w4?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,25 +524,24 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F3" t="n">
-        <v>3.9</v>
+        <v>-7.938418</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.938418</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.337473</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+oleh+oleh+Bu+vera+-+Paris/@-7.8970663,110.251188,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5566da2d563b:0x9775a498eb77163a!8m2!3d-7.9384177!4d110.3374733!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFc3RvcmWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjRhbVpoV0doUlJSQULgAQD6AQQIABA8!16s%2Fg%2F11g8yk100g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+oleh+oleh+Bu+vera+-+Paris/@-7.8970663,110.251188,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5566da2d563b:0x9775a498eb77163a!8m2!3d-7.9384177!4d110.3374733!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFc3RvcmWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjRhbVpoV0doUlJSQULgAQD6AQQIABA8!16s%2Fg%2F11g8yk100g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -567,25 +560,24 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F4" t="n">
-        <v>3.9</v>
+        <v>-7.926734</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.926734</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.281638</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Oleh+Oleh+Bantul+Yogyakarta/@-7.9267345,110.20954,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7afe54e0eab69f:0xa6c1185d3823fda2!8m2!3d-7.9267345!4d110.2816378!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEPc2hvcHBpbmdfY2VudGVymgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ1ZWpjeWJuUjNSUkFC4AEA-gEECAAQLQ!16s%2Fg%2F11gcqwvl4j?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -604,25 +596,24 @@
           <t>0823-3845-1712</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.8</v>
+        <v>-7.814294</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.814294</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.3561</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pusat+Oleh+Oleh+Ob/@-7.7939353,110.2956801,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5794dfb4efa9:0x3a0b31d7a23c6c1!8m2!3d-7.8142945!4d110.3561001!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWySAQpmb29kX3N0b3Jl4AEA!16s%2Fg%2F11bbx28q0c?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -641,25 +632,24 @@
           <t>(0274) 6536960</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F6" t="n">
-        <v>3.9</v>
+        <v>-7.885327</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.885327</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.329565</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pusat+Oleh-Oleh+dan+Camilan+Bu+Nurul/@-7.8853267,110.2574671,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7aff55e4940f4f:0xac4ad12d6e82a8de!8m2!3d-7.8853267!4d110.3295649!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEKZm9vZF9zdG9yZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VSVWVWOW1XSEYzUlJBQuABAPoBBAgAEDc!16s%2Fg%2F11b6nnb7k9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -678,25 +668,24 @@
           <t>0882-0053-65176</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>-7.89192</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.89192</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.352356</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/JIMSHONEY+BANTUL+STORE+OFFICIAL+(Jimshoney+jogja+store+official)/@-7.8919196,110.2802579,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a55f531c71601:0x1e7beeb6abfa65b!8m2!3d-7.8919196!4d110.3523557!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEIYmFnX3Nob3DgAQA!16s%2Fg%2F11sf0dhz1h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/JIMSHONEY+BANTUL+STORE+OFFICIAL+(Jimshoney+jogja+store+official)/@-7.8919196,110.2802579,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a55f531c71601:0x1e7beeb6abfa65b!8m2!3d-7.8919196!4d110.3523557!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEIYmFnX3Nob3DgAQA!16s%2Fg%2F11sf0dhz1h?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -723,25 +712,24 @@
           <t>0877-4233-9130</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>-7.804458</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.804458</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.342983</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Danar+Koper+Bantul/@-7.8044577,110.2708854,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57db6b28ebb1:0x10f582c4ec5d43a3!8m2!3d-7.8044577!4d110.3429832!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgENbHVnZ2FnZV9zdG9yZeABAA!16s%2Fg%2F11gh9pq4cz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Danar+Koper+Bantul/@-7.8044577,110.2708854,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57db6b28ebb1:0x10f582c4ec5d43a3!8m2!3d-7.8044577!4d110.3429832!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgENbHVnZ2FnZV9zdG9yZeABAA!16s%2Fg%2F11gh9pq4cz?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -765,22 +753,21 @@
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>-7.830055</v>
+      </c>
       <c r="G9" t="n">
-        <v>-7.830055</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.367463</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Toko+Diantama+-+Ruko+Perwita+Regency%EA%A7%8B%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%8F%EA%A6%BA%EA%A6%B4%EA%A6%A3%EA%A6%B6%EA%A6%AA%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%A9%EA%A6%AB%EA%A6%B8%EA%A6%8F%EA%A6%BA%EA%A6%B4%EA%A6%A5%EA%A6%BC%EA%A6%82%EA%A6%AE%EA%A6%B6%EA%A6%A0%EA%A6%89%EA%A6%92%EA%A6%BC%EA%A6%9A%EA%A7%80%EA%A6%95%EA%A7%80%EA%A6%AA%EA%A7%80/@-7.8144322,110.2837309,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57ae3032b3af:0x595bf253c7c2e7a7!8m2!3d-7.8300549!4d110.3674631!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgELY3JhZnRfc3RvcmXgAQA!16s%2Fg%2F1hm3kd7kf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -799,25 +786,24 @@
           <t>0818-0421-3977</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.2</v>
+        <v>-7.916758</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.916758</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.38174</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pasar+Imogiri+Bantul/@-7.9167581,110.3096425,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5455081ed15b:0xb77942b9cbe913dc!8m2!3d-7.9167581!4d110.3817403!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEOcHJvZHVjZV9tYXJrZXTgAQA!16s%2Fg%2F11cjpb0yt8?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -836,25 +822,24 @@
           <t>0878-3832-0769</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>-7.886084</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.886084</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.330328</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+oleh-oleh+Laris+Baru+Pak+Wintolo/@-7.8860841,110.2582306,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7affb44b0c963d:0xf10202201c20b53!8m2!3d-7.8860841!4d110.3303284!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEPc2hvcHBpbmdfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5IYkVwTWNGTjNFQUXgAQD6AQQIABAc!16s%2Fg%2F11p6pbpv50?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+oleh-oleh+Laris+Baru+Pak+Wintolo/@-7.8860841,110.2582306,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7affb44b0c963d:0xf10202201c20b53!8m2!3d-7.8860841!4d110.3303284!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEPc2hvcHBpbmdfY2VudGVymgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5IYkVwTWNGTjNFQUXgAQD6AQQIABAc!16s%2Fg%2F11p6pbpv50?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -877,25 +862,24 @@
           <t>(0274) 388496</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.5</v>
+        <v>-7.824719</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.824719</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.373024</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Dapur+Roti+Bu+Haryati(%EA%A7%8B%EA%A6%A3%EA%A6%A5%EA%A6%B8%EA%A6%82%EA%A6%AB%EA%A6%BA%EA%A6%B4%EA%A6%A0%EA%A6%B6%EA%A6%A7%EA%A6%B8%EA%A6%B2%EA%A6%82%EA%A6%AA%EA%A6%A0%EA%A6%B6)/@-7.8247189,110.3009261,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57a5d7e6e633:0xd4f24ab31d55279!8m2!3d-7.8247189!4d110.3730239!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEGYmFrZXJ54AEA!16s%2Fg%2F11bzywjh0v?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -914,25 +898,24 @@
           <t>0852-9345-4133</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.8</v>
+        <v>-7.935834</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.935834</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.369583</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/BAKPIA+PATHOK+DINDUN/@-7.9358345,110.2974853,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a55199d9b6a93:0xbf90795f60dc2095!8m2!3d-7.9358345!4d110.3695831!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEJY2FrZV9zaG9w4AEA!16s%2Fg%2F11gb409m98?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -951,25 +934,24 @@
           <t>0852-9345-4133</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.8</v>
+        <v>-7.891692</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.891692</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.327859</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mulia+Swalayan+%26+Toserba+Bantul/@-7.8916917,110.2557613,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7aff59cafcd819:0xb0495038615e495e!8m2!3d-7.8916917!4d110.3278591!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEQZGVwYXJ0bWVudF9zdG9yZeABAA!16s%2Fg%2F11b7lpdxk0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -988,25 +970,24 @@
           <t>0818-0272-0003</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.2</v>
+        <v>-7.915509</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.915509</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.351644</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+Oleh+Oleh+Geplak+Peyek+Tumpuk+Bantul/@-7.9155091,110.2795461,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a55495935cd4b:0x2340deb5d30999a6!8m2!3d-7.9155091!4d110.3516439!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEZZm9vZF9tYW51ZmFjdHVyaW5nX3N1cHBseZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReWRDMVFPRlZuRUFF4AEA-gEFCKABED8!16s%2Fg%2F1pzrfpsy9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+Oleh+Oleh+Geplak+Peyek+Tumpuk+Bantul/@-7.9155091,110.2795461,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a55495935cd4b:0x2340deb5d30999a6!8m2!3d-7.9155091!4d110.3516439!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEZZm9vZF9tYW51ZmFjdHVyaW5nX3N1cHBseZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VReWRDMVFPRlZuRUFF4AEA-gEFCKABED8!16s%2Fg%2F1pzrfpsy9?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1029,25 +1010,24 @@
           <t>0818-0272-0003</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.2</v>
+        <v>-7.816542</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.816542</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.32832</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SOCKISGOOD+BANTUL+(toko+kaos+kaki)/@-7.8165418,110.2562225,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7af96aa6a92867:0x97bf11eadb2bf183!8m2!3d-7.8165418!4d110.3283203!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFc3RvcmXgAQA!16s%2Fg%2F11llnv33zy?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1070,25 +1050,24 @@
           <t>0813-9365-4890</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.9</v>
+        <v>-7.826471</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.826471</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.37447</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kado+Wisudaku/@-7.8264711,110.3023721,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57a89deb0827:0x975169057a6c00a6!8m2!3d-7.8264711!4d110.3744699!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEJZ2lmdF9zaG9w4AEA!16s%2Fg%2F11b7hfr2cl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kado+Wisudaku/@-7.8264711,110.3023721,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57a89deb0827:0x975169057a6c00a6!8m2!3d-7.8264711!4d110.3744699!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEJZ2lmdF9zaG9w4AEA!16s%2Fg%2F11b7hfr2cl?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1115,25 +1094,24 @@
           <t>0813-9365-4890</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.9</v>
+        <v>-7.81677</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.81677</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.35601</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Momoyo+ice+cream%26fruit+tea+bantul/@-7.8264711,110.3023721,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5704c791b465:0xddb4a2b32e0df6e8!8m2!3d-7.8167705!4d110.3560095!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEOaWNlX2NyZWFtX3Nob3DgAQA!16s%2Fg%2F11l5lthzkt?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1156,25 +1134,24 @@
           <t>0857-2928-7188</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>5</v>
+      </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>-7.941581</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.941581</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.351359</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Monela+Handmade+(+toko+buket+bantul+)/@-7.9121604,110.3104226,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5541d18aa59b:0x92ea3405f763b887!8m2!3d-7.941581!4d110.351359!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEJZ2lmdF9zaG9w4AEA!16s%2Fg%2F11f0xrhnpn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Monela+Handmade+(+toko+buket+bantul+)/@-7.9121604,110.3104226,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5541d18aa59b:0x92ea3405f763b887!8m2!3d-7.941581!4d110.351359!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEJZ2lmdF9zaG9w4AEA!16s%2Fg%2F11f0xrhnpn?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1201,25 +1178,24 @@
           <t>0812-2886-5711</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.8</v>
+        <v>-7.819914</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.819914</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.354443</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Ricie/@-7.8199142,110.2823455,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57632cd24919:0xd3d2910b74f23ed0!8m2!3d-7.8199142!4d110.3544433!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFZGluZXLgAQA!16s%2Fg%2F11h227tpy_?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1238,25 +1214,24 @@
           <t>0856-4383-7538</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>-7.829851</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.829851</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.353797</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Oppo+Store+Bantul/@-7.8199142,110.2823455,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5751464646f9:0xece1a8447f4f4b0b!8m2!3d-7.829851!4d110.3537971!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEQY2VsbF9waG9uZV9zdG9yZeABAA!16s%2Fg%2F11rvbk27tk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Oppo+Store+Bantul/@-7.8199142,110.2823455,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5751464646f9:0xece1a8447f4f4b0b!8m2!3d-7.829851!4d110.3537971!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEQY2VsbF9waG9uZV9zdG9yZeABAA!16s%2Fg%2F11rvbk27tk?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1279,25 +1254,24 @@
           <t>0856-4383-7538</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>-7.918794</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.918794</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.37759</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Toko+WS+Imogiri/@-7.9187943,110.3054923,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a55aaa42b4b73:0xae23bae5382ea507!8m2!3d-7.9187943!4d110.3775901!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFc3RvcmWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjRaM1UyYldsM1JSQULgAQD6AQQIABAs!16s%2Fg%2F11cs3vfftp?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1320,25 +1294,24 @@
           <t>0878-7878-0251</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.7</v>
+        <v>-7.796874</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.796874</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.365442</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gemah+Ripah/@-7.797058,110.2966622,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57881720aa59:0x5198d2225ea2e7f4!8m2!3d-7.7968741!4d110.3654422!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFc3RvcmXgAQA!16s%2Fg%2F1tsgh5_p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gemah+Ripah/@-7.797058,110.2966622,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57881720aa59:0x5198d2225ea2e7f4!8m2!3d-7.7968741!4d110.3654422!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEFc3RvcmXgAQA!16s%2Fg%2F1tsgh5_p?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1365,25 +1338,24 @@
           <t>(0274) 583237</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.6</v>
+        <v>-7.797724</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.797724</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.358647</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bakpia+Pathok+25+Ongko+Joyo/@-7.797058,110.2966622,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a5775d40149db:0x54613a618d7b0c14!8m2!3d-7.7977241!4d110.358647!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEPc2hvcHBpbmdfY2VudGVy4AEA!16s%2Fg%2F11sfrydv13?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1406,25 +1378,24 @@
           <t>(0274) 583237</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.6</v>
+        <v>-7.915893</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.915893</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.398302</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kampung+Batik+Giriloyo/@-7.9158931,110.3262043,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a545f03793c85:0x1ba72bc2befc109f!8m2!3d-7.9158931!4d110.3983021!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgEPY3VsdHVyYWxfY2VudGVy4AEA!16s%2Fg%2F11fxzpzkxr?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1443,25 +1414,24 @@
           <t>(0274) 7409978</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.3</v>
+        <v>-7.798645</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.798645</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.351869</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Kerajinan+Jogja/@-7.7936929,110.2937983,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57f5086f93e7:0x2a4191feac4cbde!8m2!3d-7.7986454!4d110.351869!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgELY3JhZnRfc3RvcmXgAQA!16s%2Fg%2F1pzxdzm9g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Kerajinan+Jogja/@-7.7936929,110.2937983,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57f5086f93e7:0x2a4191feac4cbde!8m2!3d-7.7986454!4d110.351869!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgELY3JhZnRfc3RvcmXgAQA!16s%2Fg%2F1pzxdzm9g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1484,25 +1454,24 @@
           <t>(0274) 7409978</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.3</v>
+        <v>-7.798645</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.798645</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.351869</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Kerajinan+Jogja/@-7.7936929,110.2937983,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57f5086f93e7:0x2a4191feac4cbde!8m2!3d-7.7986454!4d110.351869!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgELY3JhZnRfc3RvcmXgAQA!16s%2Fg%2F1pzxdzm9g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Kerajinan+Jogja/@-7.7936929,110.2937983,13z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Bantul!6e6!3m6!1s0x2e7a57f5086f93e7:0x2a4191feac4cbde!8m2!3d-7.7986454!4d110.351869!15sChVUb2tvIE9sZWggb2xlaCBCYW50dWxaFyIVdG9rbyBvbGVoIG9sZWggYmFudHVskgELY3JhZnRfc3RvcmXgAQA!16s%2Fg%2F1pzxdzm9g?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1525,21 +1494,20 @@
           <t>0857-2590-7688</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
+      <c r="E28" t="n">
         <v>4.5</v>
       </c>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Oleh+Oleh+Jogja/@-7.805191,110.3423289,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a582633dec295:0x8d7cddebc8d3b8f5!8m2!3d-7.793171!4d110.3655261!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F11g6xr9m0d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Oleh+Oleh+Jogja/@-7.805191,110.3423289,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a582633dec295:0x8d7cddebc8d3b8f5!8m2!3d-7.793171!4d110.3655261!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEOc291dmVuaXJfc3RvcmXgAQA!16s%2Fg%2F11g6xr9m0d?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1562,21 +1530,20 @@
           <t>(0274) 562985</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
+      <c r="E29" t="n">
         <v>4.5</v>
       </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pusat+Oleh-Oleh/@-7.7867027,110.3484573,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a58289c4c7c19:0x90bf3e3bd6d7021b!8m2!3d-7.7927108!4d110.3665766!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGGSAQ5zb3V2ZW5pcl9zdG9yZeABAA!16s%2Fg%2F1pzr_74yh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pusat+Oleh-Oleh/@-7.7867027,110.3484573,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a58289c4c7c19:0x90bf3e3bd6d7021b!8m2!3d-7.7927108!4d110.3665766!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGGSAQ5zb3V2ZW5pcl9zdG9yZeABAA!16s%2Fg%2F1pzr_74yh?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1603,21 +1570,20 @@
           <t>(0274) 588524</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="n">
+      <c r="E30" t="n">
         <v>4.6</v>
       </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Hamzah+Batik+-+Toko+Batik+dan+Oleh-oleh+Khas+Jogja/@-7.7867027,110.3484573,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a5788f761d221:0x6e56f49ab472d198!8m2!3d-7.7991629!4d110.3647534!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEFc3RvcmXgAQA!16s%2Fg%2F1tf2pnpf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Hamzah+Batik+-+Toko+Batik+dan+Oleh-oleh+Khas+Jogja/@-7.7867027,110.3484573,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a5788f761d221:0x6e56f49ab472d198!8m2!3d-7.7991629!4d110.3647534!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEFc3RvcmXgAQA!16s%2Fg%2F1tf2pnpf?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>12 menit lalu</t>
         </is>
@@ -1636,21 +1602,20 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="n">
+      <c r="E31" t="n">
         <v>4.7</v>
       </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Raminten+Souvenir/@-7.8035408,110.3484831,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a57de3a5ced21:0x39c5fe038b0f2a37!8m2!3d-7.7991633!4d110.364771!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEOc291dmVuaXJfc3RvcmWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUktNWFV5WTA1UkVBReABAPoBBAgAEEE!16s%2Fg%2F11gjzmgvjc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Raminten+Souvenir/@-7.8035408,110.3484831,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kota+Yogyakarta!6e6!3m6!1s0x2e7a57de3a5ced21:0x39c5fe038b0f2a37!8m2!3d-7.7991633!4d110.364771!15sCh5Ub2tvIE9sZWggb2xlaCBLb3RhIFlvZ3lha2FydGFaICIedG9rbyBvbGVoIG9sZWgga290YSB5b2d5YWthcnRhkgEOc291dmVuaXJfc3RvcmWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUktNWFV5WTA1UkVBReABAPoBBAgAEEE!16s%2Fg%2F11gjzmgvjc?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoJLDEwMjExMjM0SAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -1673,25 +1638,24 @@
           <t>0851-0061-6764</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.3</v>
+        <v>-7.859594</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.859594</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.158656</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Oleh+Oleh+Bu+Emi/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb3c9bbcdf47:0xeee3c731f8d7a4d4!8m2!3d-7.8595943!4d110.1586562!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb5IBD3Nob3BwaW5nX2NlbnRlcuABAA!16s%2Fg%2F11d_cxkzt0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Oleh+Oleh+Bu+Emi/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb3c9bbcdf47:0xeee3c731f8d7a4d4!8m2!3d-7.8595943!4d110.1586562!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb5IBD3Nob3BwaW5nX2NlbnRlcuABAA!16s%2Fg%2F11d_cxkzt0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1714,25 +1678,24 @@
           <t>0851-0061-6764</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.3</v>
+        <v>-7.859594</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.859594</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.158656</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Oleh+Oleh+Bu+Emi/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb3c9bbcdf47:0xeee3c731f8d7a4d4!8m2!3d-7.8595943!4d110.1586562!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb5IBD3Nob3BwaW5nX2NlbnRlcuABAA!16s%2Fg%2F11d_cxkzt0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Oleh+Oleh+Bu+Emi/@-7.865617,109.870864,11z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Kulon+Progo!6e6!3m6!1s0x2e7afb3c9bbcdf47:0xeee3c731f8d7a4d4!8m2!3d-7.8595943!4d110.1586562!15sChpUb2tvIE9sZWggb2xlaCBLdWxvbiBQcm9nb5IBD3Nob3BwaW5nX2NlbnRlcuABAA!16s%2Fg%2F11d_cxkzt0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1750,16 +1713,15 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/Toko+Oleh+oleh+Sleman/@-7.8053374,110.3684985,15z/data=!4m2!2m1!6e6?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1778,25 +1740,24 @@
           <t>(0274) 562985</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.5</v>
+        <v>-7.75836</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.75836</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.400102</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bakpia+Mutiara+Jogja+-+Ruko+Depan+Polda+Sleman/@-7.7583603,110.3820774,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a59a4e3ff6a37:0x94c10ede1fd5b886!8m2!3d-7.7583603!4d110.4001018!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEGYmFrZXJ54AEA!16s%2Fg%2F11pwvff2yw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bakpia+Mutiara+Jogja+-+Ruko+Depan+Polda+Sleman/@-7.7583603,110.3820774,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a59a4e3ff6a37:0x94c10ede1fd5b886!8m2!3d-7.7583603!4d110.4001018!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEGYmFrZXJ54AEA!16s%2Fg%2F11pwvff2yw?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1823,25 +1784,24 @@
           <t>0878-7878-0251</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>5</v>
+      </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>-7.783388</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.783388</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.401157</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Toko+Oleh-Oleh+Jogja+Amplaz+Malio17/@-7.7833879,110.3831324,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a573b437d1a03:0xbd1eb7212935c781!8m2!3d-7.7833879!4d110.4011568!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEFc3RvcmXgAQA!16s%2Fg%2F11k9cyyx19?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Toko+Oleh-Oleh+Jogja+Amplaz+Malio17/@-7.7833879,110.3831324,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a573b437d1a03:0xbd1eb7212935c781!8m2!3d-7.7833879!4d110.4011568!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEFc3RvcmXgAQA!16s%2Fg%2F11k9cyyx19?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1864,25 +1824,24 @@
           <t>0857-2590-7688</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F37" t="n">
-        <v>4.5</v>
+        <v>-7.743472</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.743472</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.389751</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ChezMoi+Patissier+%26+Chocolatier+Jl.+Kaliurang/@-7.7434719,110.3717262,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a590552a8e3e9:0x35e362a356b259ab!8m2!3d-7.7434719!4d110.3897506!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEGYmFrZXJ54AEA!16s%2Fg%2F11b61rbdrq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ChezMoi+Patissier+%26+Chocolatier+Jl.+Kaliurang/@-7.7434719,110.3717262,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a590552a8e3e9:0x35e362a356b259ab!8m2!3d-7.7434719!4d110.3897506!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEGYmFrZXJ54AEA!16s%2Fg%2F11b61rbdrq?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1905,25 +1864,24 @@
           <t>0896-8698-7227</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.5</v>
+        <v>-7.718937</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.718937</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.404961</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Ollin+Bakery+%26+Cakeshop/@-7.7189375,110.386937,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a5949af2e5b83:0x1aae8f5c6a5a7b3d!8m2!3d-7.7189375!4d110.4049614!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEGYmFrZXJ54AEA!16s%2Fg%2F11b6smfd56?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1942,25 +1900,24 @@
           <t>0896-8698-7227</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.5</v>
+        <v>-7.74568</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.74568</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.406686</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Wisli+Bakery/@-7.7456799,110.388662,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a599f42ec3e33:0x9618c02be5631719!8m2!3d-7.7456799!4d110.4066864!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEGYmFrZXJ54AEA!16s%2Fg%2F11qhw6qdx0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Wisli+Bakery/@-7.7456799,110.388662,15z/data=!4m11!1m3!2m2!1sToko+Oleh+oleh+Sleman!6e6!3m6!1s0x2e7a599f42ec3e33:0x9618c02be5631719!8m2!3d-7.7456799!4d110.4066864!15sChVUb2tvIE9sZWggb2xlaCBTbGVtYW5aFyIVdG9rbyBvbGVoIG9sZWggc2xlbWFukgEGYmFrZXJ54AEA!16s%2Fg%2F11qhw6qdx0?entry=ttu&amp;g_ep=EgoyMDI1MDIwMi4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
